--- a/biology/Zoologie/Crotaphopeltis_hotamboeia/Crotaphopeltis_hotamboeia.xlsx
+++ b/biology/Zoologie/Crotaphopeltis_hotamboeia/Crotaphopeltis_hotamboeia.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:H5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,9 +490,11 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Crotaphopeltis hotamboeia est une espèce de serpents de la famille des Colubridae[1].
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Crotaphopeltis hotamboeia est une espèce de serpents de la famille des Colubridae.
 </t>
         </is>
       </c>
@@ -511,9 +523,11 @@
           <t>Répartition</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Cette espèce se rencontre sur un large territoire couvrant une grande partie de l'Afrique subsaharienne[1] : Afrique du Sud, Bénin, Botswana, Burkina Faso, Burundi, Cameroun, Côte d'Ivoire, Érythrée, Éthiopie, Gabon, Gambie, Ghana, Kenya, Liberia, Malawi, Mali, Mozambique, Ouganda, République centrafricaine, République démocratique du Congo, République du Congo, Rwanda, Sénégal, Somalie,
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Cette espèce se rencontre sur un large territoire couvrant une grande partie de l'Afrique subsaharienne : Afrique du Sud, Bénin, Botswana, Burkina Faso, Burundi, Cameroun, Côte d'Ivoire, Érythrée, Éthiopie, Gabon, Gambie, Ghana, Kenya, Liberia, Malawi, Mali, Mozambique, Ouganda, République centrafricaine, République démocratique du Congo, République du Congo, Rwanda, Sénégal, Somalie,
 Swaziland, Tanzanie, Zambie, Zimbabwe.
 </t>
         </is>
@@ -543,9 +557,11 @@
           <t>Description</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Crotaphopeltis hotamboeia[2] présente un dos gris, brun, olive ou noir, habituellement marqué de taches blanches formant, chez les juvéniles et les jeunes adultes, des bandes transversales. Les côtés de la tête sont marqués de noir, noir-bleuté ou noir-violacé. Cette tache peut s'étendre vers l'arrière pour encercler l'occiput. Sa face ventrale est blanche, crème ou brun pâle, rarement pigmentée de sombre.
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Crotaphopeltis hotamboeia présente un dos gris, brun, olive ou noir, habituellement marqué de taches blanches formant, chez les juvéniles et les jeunes adultes, des bandes transversales. Les côtés de la tête sont marqués de noir, noir-bleuté ou noir-violacé. Cette tache peut s'étendre vers l'arrière pour encercler l'occiput. Sa face ventrale est blanche, crème ou brun pâle, rarement pigmentée de sombre.
 </t>
         </is>
       </c>
@@ -574,7 +590,9 @@
           <t>Publication originale</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t>Laurenti, 1768 : Specimen medicum, exhibens synopsin reptilium emendatam cum experimentis circa venena et antidota reptilium austriacorum, Vienna Joan Thomae, p. 1-217 (texte intégral).</t>
         </is>
